--- a/AWS S3 Calculator/AWS S3 Calculator.xlsx
+++ b/AWS S3 Calculator/AWS S3 Calculator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus Ultrabook\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FreelancingProjects\Exam105 Project\Doc Support\documentation-support\AWS S3 Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A20B4AE-FFB1-4C3E-AF2A-EEFC791FA546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84283BF1-A936-452C-A446-D77DB4B4FDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41ED31E4-63AB-4FDE-B08B-2C94565D79E6}"/>
   </bookViews>
@@ -1096,13 +1096,116 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,133 +1253,30 @@
     <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2248,7 +2248,7 @@
   <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2262,29 +2262,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="83"/>
       <c r="J1" s="41"/>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="87"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="77"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
@@ -2293,25 +2293,25 @@
       <c r="Y1" s="7"/>
     </row>
     <row r="2" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="102"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="41"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="88"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -2320,32 +2320,32 @@
       <c r="Y2" s="7"/>
     </row>
     <row r="3" spans="1:25" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="96"/>
-      <c r="K3" s="82" t="s">
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="K3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
       <c r="T3" s="42"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
@@ -2354,24 +2354,24 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -2379,28 +2379,28 @@
       <c r="Y4" s="7"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="46">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
       <c r="P5" s="32">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -2408,32 +2408,32 @@
         <v>8</v>
       </c>
       <c r="R5" s="15"/>
-      <c r="S5" s="89"/>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" spans="1:25" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="17">
         <f>$F$5*60</f>
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
       <c r="P6" s="30">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -2441,32 +2441,32 @@
         <v>8</v>
       </c>
       <c r="R6" s="15"/>
-      <c r="S6" s="90"/>
+      <c r="S6" s="48"/>
     </row>
     <row r="7" spans="1:25" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="2">
         <f>$F$6*60</f>
-        <v>54000</v>
+        <v>36000</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
       <c r="P7" s="30">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -2474,52 +2474,52 @@
         <v>8</v>
       </c>
       <c r="R7" s="15"/>
-      <c r="S7" s="90"/>
+      <c r="S7" s="48"/>
     </row>
     <row r="8" spans="1:25" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="2">
         <f>$F$7*24</f>
-        <v>1296000</v>
+        <v>864000</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="9"/>
-      <c r="K8" s="67" t="s">
+      <c r="K8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
       <c r="P8" s="30">
         <v>3.9999999999999998E-7</v>
       </c>
       <c r="Q8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="108"/>
-      <c r="S8" s="109"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="51"/>
     </row>
     <row r="9" spans="1:25" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="16">
         <f>$F$8*30</f>
-        <v>38880000</v>
+        <v>25920000</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>6</v>
@@ -2530,13 +2530,13 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="46">
         <v>25</v>
       </c>
@@ -2547,16 +2547,16 @@
       <c r="I10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
       <c r="P10" s="29">
         <f>$P$5*$I$15</f>
-        <v>23.174285888671875</v>
+        <v>15.44952392578125</v>
       </c>
       <c r="Q10" s="26" t="s">
         <v>8</v>
@@ -2565,16 +2565,16 @@
       <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:25" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="19">
         <f>$F$5*$F$10</f>
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>33</v>
@@ -2583,16 +2583,16 @@
       <c r="I11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="66" t="s">
+      <c r="K11" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
       <c r="P11" s="29">
         <f>$P$6*$I$15</f>
-        <v>0.8342742919921875</v>
+        <v>0.556182861328125</v>
       </c>
       <c r="Q11" s="26" t="s">
         <v>8</v>
@@ -2601,16 +2601,16 @@
       <c r="S11" s="13"/>
     </row>
     <row r="12" spans="1:25" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="2">
         <f>$F$6*$F$10</f>
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>33</v>
@@ -2619,16 +2619,16 @@
       <c r="I12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="66" t="s">
+      <c r="K12" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
       <c r="P12" s="29">
         <f>$P$7*$I$15</f>
-        <v>2.3174285888671875</v>
+        <v>1.544952392578125</v>
       </c>
       <c r="Q12" s="26" t="s">
         <v>8</v>
@@ -2637,16 +2637,16 @@
       <c r="S12" s="13"/>
     </row>
     <row r="13" spans="1:25" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="2">
         <f>$F$7*$F$10</f>
-        <v>1350000</v>
+        <v>900000</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>33</v>
@@ -2654,18 +2654,18 @@
       <c r="H13" s="8"/>
       <c r="I13" s="20">
         <f t="shared" ref="I13" si="0">F13/1024/1024</f>
-        <v>1.2874603271484375</v>
-      </c>
-      <c r="K13" s="66" t="s">
+        <v>0.858306884765625</v>
+      </c>
+      <c r="K13" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
       <c r="P13" s="29">
         <f>$P$8*$F$9</f>
-        <v>15.552</v>
+        <v>10.368</v>
       </c>
       <c r="Q13" s="26" t="s">
         <v>8</v>
@@ -2674,16 +2674,16 @@
       <c r="S13" s="14"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="2">
         <f>$F$8*$F$10</f>
-        <v>32400000</v>
+        <v>21600000</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>33</v>
@@ -2691,20 +2691,20 @@
       <c r="H14" s="8"/>
       <c r="I14" s="43">
         <f>F14/1024/1024</f>
-        <v>30.8990478515625</v>
+        <v>20.599365234375</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="2">
         <f>$F$9*$F$10</f>
-        <v>972000000</v>
+        <v>648000000</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>33</v>
@@ -2712,25 +2712,25 @@
       <c r="H15" s="8"/>
       <c r="I15" s="45">
         <f>F15/1024/1024</f>
-        <v>926.971435546875</v>
+        <v>617.98095703125</v>
       </c>
       <c r="J15" s="44"/>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="50">
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="87">
         <f>$P$10+$P$11+$P$12+$P$13</f>
-        <v>41.87798876953125</v>
-      </c>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="54" t="s">
+        <v>27.918659179687502</v>
+      </c>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="55"/>
+      <c r="S15" s="92"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
@@ -2742,15 +2742,15 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="18"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="57"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="94"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
@@ -2775,31 +2775,31 @@
     <row r="18" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
       <c r="I18" s="7"/>
-      <c r="K18" s="59" t="s">
+      <c r="K18" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="50">
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="87">
         <f>($P$10+$P$11+$P$12+$P$13)/30</f>
-        <v>1.395932958984375</v>
-      </c>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="54" t="s">
+        <v>0.93062197265625002</v>
+      </c>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="S18" s="55"/>
+      <c r="S18" s="92"/>
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
@@ -2811,15 +2811,15 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="57"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="94"/>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
@@ -2915,23 +2915,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="K3:S4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="K11:O11"/>
     <mergeCell ref="K1:S2"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="P15:Q16"/>
@@ -2948,6 +2931,23 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="K15:O16"/>
     <mergeCell ref="A8:E8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="K3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2974,29 +2974,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="106"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
@@ -3005,25 +3005,25 @@
       <c r="Y1" s="7"/>
     </row>
     <row r="2" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="107"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="109"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -3032,32 +3032,32 @@
       <c r="Y2" s="7"/>
     </row>
     <row r="3" spans="1:25" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="96"/>
-      <c r="K3" s="81" t="s">
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="K3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
       <c r="T3" s="42"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
@@ -3066,24 +3066,24 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -3091,13 +3091,13 @@
       <c r="Y4" s="7"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="46">
         <v>10</v>
       </c>
@@ -3106,13 +3106,13 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
       <c r="P5" s="32">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3120,16 +3120,16 @@
         <v>8</v>
       </c>
       <c r="R5" s="15"/>
-      <c r="S5" s="89"/>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" spans="1:25" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="17">
         <f>$F$5*60</f>
         <v>600</v>
@@ -3139,13 +3139,13 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
       <c r="P6" s="30">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -3153,16 +3153,16 @@
         <v>8</v>
       </c>
       <c r="R6" s="15"/>
-      <c r="S6" s="90"/>
+      <c r="S6" s="48"/>
     </row>
     <row r="7" spans="1:25" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="2">
         <f>$F$6*60</f>
         <v>36000</v>
@@ -3172,13 +3172,13 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
       <c r="P7" s="30">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -3186,16 +3186,16 @@
         <v>8</v>
       </c>
       <c r="R7" s="15"/>
-      <c r="S7" s="90"/>
+      <c r="S7" s="48"/>
     </row>
     <row r="8" spans="1:25" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="2">
         <f>$F$7*24</f>
         <v>864000</v>
@@ -3205,30 +3205,30 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="9"/>
-      <c r="K8" s="67" t="s">
+      <c r="K8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
       <c r="P8" s="30">
         <v>3.9999999999999998E-7</v>
       </c>
       <c r="Q8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="108"/>
-      <c r="S8" s="109"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="51"/>
     </row>
     <row r="9" spans="1:25" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="16">
         <f>$F$8*30</f>
         <v>25920000</v>
@@ -3242,13 +3242,13 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="46">
         <v>10</v>
       </c>
@@ -3259,13 +3259,13 @@
       <c r="I10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
       <c r="P10" s="29">
         <f>$P$5*$I$15</f>
         <v>6.1798095703125</v>
@@ -3277,13 +3277,13 @@
       <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:25" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="19">
         <f>$F$5*$F$10</f>
         <v>100</v>
@@ -3295,13 +3295,13 @@
       <c r="I11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="66" t="s">
+      <c r="K11" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
       <c r="P11" s="29">
         <f>$P$6*$I$15</f>
         <v>0.22247314453125</v>
@@ -3313,13 +3313,13 @@
       <c r="S11" s="13"/>
     </row>
     <row r="12" spans="1:25" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="2">
         <f>$F$6*$F$10</f>
         <v>6000</v>
@@ -3331,13 +3331,13 @@
       <c r="I12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="66" t="s">
+      <c r="K12" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
       <c r="P12" s="29">
         <f>$P$7*$I$15</f>
         <v>0.61798095703125</v>
@@ -3349,13 +3349,13 @@
       <c r="S12" s="13"/>
     </row>
     <row r="13" spans="1:25" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="2">
         <f>$F$7*$F$10</f>
         <v>360000</v>
@@ -3368,13 +3368,13 @@
         <f t="shared" ref="I13" si="0">F13/1024/1024</f>
         <v>0.34332275390625</v>
       </c>
-      <c r="K13" s="66" t="s">
+      <c r="K13" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
       <c r="P13" s="29">
         <f>$P$8*$F$9</f>
         <v>10.368</v>
@@ -3386,13 +3386,13 @@
       <c r="S13" s="14"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="2">
         <f>$F$8*$F$10</f>
         <v>8640000</v>
@@ -3407,13 +3407,13 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="2">
         <f>$F$9*$F$10</f>
         <v>259200000</v>
@@ -3427,22 +3427,22 @@
         <v>247.1923828125</v>
       </c>
       <c r="J15" s="44"/>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="50">
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="87">
         <f>$P$10+$P$11+$P$12+$P$13</f>
         <v>17.388263671875002</v>
       </c>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="54" t="s">
+      <c r="Q15" s="88"/>
+      <c r="R15" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="55"/>
+      <c r="S15" s="92"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
@@ -3454,15 +3454,15 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="18"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="57"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="94"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
@@ -3487,31 +3487,31 @@
     <row r="18" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
       <c r="I18" s="7"/>
-      <c r="K18" s="59" t="s">
+      <c r="K18" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="50">
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="87">
         <f>($P$10+$P$11+$P$12+$P$13)/30</f>
         <v>0.57960878906250002</v>
       </c>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="54" t="s">
+      <c r="Q18" s="88"/>
+      <c r="R18" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="S18" s="55"/>
+      <c r="S18" s="92"/>
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
@@ -3523,15 +3523,15 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="57"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="94"/>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
@@ -3627,13 +3627,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="K1:S2"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="K3:S4"/>
+    <mergeCell ref="P15:Q16"/>
+    <mergeCell ref="R15:S16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="K18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="R18:S19"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="K15:O16"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="K11:O11"/>
     <mergeCell ref="A5:E5"/>
@@ -3647,19 +3653,13 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="K10:O10"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="P15:Q16"/>
-    <mergeCell ref="R15:S16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="K18:O19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="R18:S19"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="K15:O16"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="K1:S2"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="K3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
